--- a/Data_Key and source files/STDS_AS2_Data_Key.xlsx
+++ b/Data_Key and source files/STDS_AS2_Data_Key.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abishekarunachalam/Library/Containers/com.apple.mail/Data/Library/Mail Downloads/ADA1C048-024A-43E5-8797-52D8FE324317/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIANGB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCDB91-13D7-4D4B-8311-FCA2460DB359}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="580" windowWidth="28040" windowHeight="19100" xr2:uid="{9C8F4DAA-A596-7F4F-B367-A428DF176576}"/>
+    <workbookView xWindow="3156" yWindow="576" windowWidth="28044" windowHeight="19104"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>URL</t>
   </si>
@@ -93,15 +92,6 @@
     <t>Sales($US Millions)</t>
   </si>
   <si>
-    <t>Inventories($US Millions)</t>
-  </si>
-  <si>
-    <t>Wages($US Millions)</t>
-  </si>
-  <si>
-    <t>Gross Operational Profit(GOP)($US Millions)</t>
-  </si>
-  <si>
     <t>Expenditure($US Millions)</t>
   </si>
   <si>
@@ -142,13 +132,43 @@
   </si>
   <si>
     <t>Unemployment(%)</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government </t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Net Exports</t>
+  </si>
+  <si>
+    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/6202.0</t>
+  </si>
+  <si>
+    <t>Total number of employed persons in Australia</t>
+  </si>
+  <si>
+    <t>GDP Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,12 +188,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
@@ -259,29 +273,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,311 +610,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0749DFCE-B499-B140-96A9-A8FCE6245DFB}">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="113" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="149.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.296875" customWidth="1"/>
+    <col min="3" max="3" width="113" customWidth="1"/>
+    <col min="4" max="4" width="123" customWidth="1"/>
+    <col min="5" max="5" width="149.296875" customWidth="1"/>
+    <col min="6" max="6" width="37.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="23.4">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22.8">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.8">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.8">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.8">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.8">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.8">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21">
+      <c r="B9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.8">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.8">
+      <c r="A12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.8">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.8">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="16" spans="1:6" ht="21">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="46">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="2:6" ht="21">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="21">
-      <c r="A13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="21">
-      <c r="A16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="21">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="21">
-      <c r="A20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="21">
-      <c r="A22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="40" spans="2:3" ht="18">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="21">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="35" spans="3:4" ht="17.399999999999999">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{DF184CA1-16C3-364E-8AE6-B0D44A87F25B}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{6894ABC7-ECB7-FE4E-8FB1-A6415FB29D3C}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{97F9D5B0-AF85-DA47-AC93-82DE4C0CE633}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{8AABDB96-EC1D-2349-B09C-E18D4C596A49}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{DA8C939D-5347-024E-B0F2-3E8F08FB3CDD}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{0DCF6EEF-0DD8-8C49-A010-CD32E002C3F6}"/>
-    <hyperlink ref="C18" r:id="rId7" location="interest-rates" xr:uid="{B2C78FE0-B79F-234B-BC01-E2779097306A}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7" location="interest-rates"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="D9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
